--- a/biology/Médecine/Moelle_allongée/Moelle_allongée.xlsx
+++ b/biology/Médecine/Moelle_allongée/Moelle_allongée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moelle_allong%C3%A9e</t>
+          <t>Moelle_allongée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La moelle allongée (ou medulla oblongata, aussi appelée bulbe rachidien en ancienne nomenclature ou myélencéphale) est la partie inférieure du tronc cérébral (la plus caudale) chez les chordés. Elle prolonge en haut la moelle spinale et se situe en avant du cervelet dans la fosse postérieure du crâne. Elle est en continuité en haut avec le pont. Dans l'ancienne nomenclature, on remarque que le terme « rachidien » est un composé de « rachis », du grec ancien ῥάχις (rakhis) « épine dorsale »[1] (élargi par analogie avec des mots de radical en -id-). Cette moelle allongée est percée d'un conduit permettant la circulation du liquide céphalorachidien, ce conduit étant en continuité avec le 4e ventricule en haut et le canal de l'épendyme en bas.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La moelle allongée (ou medulla oblongata, aussi appelée bulbe rachidien en ancienne nomenclature ou myélencéphale) est la partie inférieure du tronc cérébral (la plus caudale) chez les chordés. Elle prolonge en haut la moelle spinale et se situe en avant du cervelet dans la fosse postérieure du crâne. Elle est en continuité en haut avec le pont. Dans l'ancienne nomenclature, on remarque que le terme « rachidien » est un composé de « rachis », du grec ancien ῥάχις (rakhis) « épine dorsale » (élargi par analogie avec des mots de radical en -id-). Cette moelle allongée est percée d'un conduit permettant la circulation du liquide céphalorachidien, ce conduit étant en continuité avec le 4e ventricule en haut et le canal de l'épendyme en bas.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moelle_allong%C3%A9e</t>
+          <t>Moelle_allongée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structures neurologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Olive bulbaire
 Formation réticulée
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moelle_allong%C3%A9e</t>
+          <t>Moelle_allongée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Apport de sang</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les branches de plusieurs artères assurent l'approvisionnement en sang de la moelle allongée :
 l'artère vertébrale ;
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moelle_allong%C3%A9e</t>
+          <t>Moelle_allongée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La moelle allongée régule des fonctions vitales comme le rythme cardiaque, la respiration et la pression artérielle.
 </t>
